--- a/lifespan.xlsx
+++ b/lifespan.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS\Desktop\HelpAge\covid_vaccine_allocation_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F2A951-4A72-430B-B508-E63D9393801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D62B8-7B51-4CC5-B78C-05CBDAFB3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifespan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lifespan!$A$1:$B$200</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Country</t>
   </si>
@@ -31,27 +45,15 @@
     <t>Aruba</t>
   </si>
   <si>
-    <t>Africa Eastern and Southern</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Africa Western and Central</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Arab World</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -61,9 +63,6 @@
     <t>Armenia</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
@@ -97,9 +96,6 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -136,9 +132,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Central Europe and the Baltics</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -157,12 +150,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -175,33 +162,18 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Caribbean small states</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -211,30 +183,9 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t>Early-demographic dividend</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep.</t>
-  </si>
-  <si>
-    <t>Euro area</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -247,12 +198,6 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>Fragile and conflict affected situations</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -265,9 +210,6 @@
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
@@ -280,15 +222,9 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -301,9 +237,6 @@
     <t>Grenada</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -313,523 +246,403 @@
     <t>Guyana</t>
   </si>
   <si>
-    <t>High income</t>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>St. Martin</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
   </si>
   <si>
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>IBRD only</t>
-  </si>
-  <si>
-    <t>IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t>IDA total</t>
-  </si>
-  <si>
-    <t>IDA blend</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>IDA only</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Not classified</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep.</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Korea, Rep.</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Macao SAR, China</t>
-  </si>
-  <si>
-    <t>St. Martin (French part)</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Middle income</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>OECD members</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Other small states</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Korea, Dem. People's Rep.</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
-    <t>Post-demographic dividend</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Venezuela, RB</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Yemen, Rep.</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1664,14 +1477,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1683,42 +1499,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>76.293000000000006</v>
+        <v>64.832999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>64.005197469999999</v>
+        <v>78.572999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>64.832999999999998</v>
+        <v>76.88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>58.115722720000001</v>
+        <v>61.146999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>61.146999999999998</v>
+        <v>77.016000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,20 +1542,23 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>78.572999999999993</v>
+        <v>76.667000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>75.087000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>71.98970937</v>
+        <v>76.293000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1747,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>77.971999999999994</v>
+        <v>82.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1755,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>76.667000000000002</v>
+        <v>81.792682929999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,65 +1582,68 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>75.087000000000003</v>
+        <v>73.004999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>73.918000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>77.016000000000005</v>
+        <v>77.292000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>82.9</v>
+        <v>72.590999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>81.792682929999998</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>73.004999999999995</v>
+        <v>74.226829269999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>61.584000000000003</v>
+        <v>81.746341459999996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>81.746341459999996</v>
+        <v>74.623000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>61.771000000000001</v>
@@ -1829,50 +1651,50 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>61.576999999999998</v>
+        <v>81.866585369999996</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>72.590999999999994</v>
+        <v>71.777000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>74.914634149999998</v>
+        <v>71.513000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>77.292000000000002</v>
+        <v>77.400999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>73.918000000000006</v>
+        <v>69.591999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>77.400999999999996</v>
+        <v>75.881</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1880,132 +1702,132 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>74.226829269999996</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>74.623000000000005</v>
+        <v>74.914634149999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>81.866585369999996</v>
+        <v>61.576999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>71.513000000000005</v>
+        <v>61.584000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>75.881</v>
+        <v>72.980999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B32">
-        <v>79.19</v>
+        <v>69.822999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>75.86</v>
+        <v>59.292000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>71.777000000000001</v>
+        <v>82.048780489999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>69.591999999999999</v>
+        <v>53.283000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="B36">
-        <v>53.283000000000001</v>
+        <v>54.238999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>82.048780489999999</v>
+        <v>83.085999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>77.144102919999995</v>
+        <v>80.180999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>83.704878050000005</v>
+        <v>76.912000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>83.085999999999999</v>
+        <v>77.287000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>80.180999999999997</v>
+        <v>64.320999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>76.912000000000006</v>
+        <v>80.278999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>57.783000000000001</v>
@@ -2013,1743 +1835,1266 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B44">
-        <v>59.292000000000002</v>
+        <v>78.424390239999994</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>60.680999999999997</v>
+        <v>78.802000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>64.569999999999993</v>
+        <v>80.981999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="B47">
-        <v>77.287000000000006</v>
+        <v>79.129268289999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="B48">
-        <v>64.320999999999998</v>
+        <v>60.680999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>72.980999999999995</v>
+        <v>81.20243902</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>80.278999999999996</v>
+        <v>67.111999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>73.754732309999994</v>
+        <v>74.081000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>78.802000000000007</v>
+        <v>77.010000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>182</v>
+      </c>
+      <c r="B53">
+        <v>71.989999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>146</v>
+      </c>
+      <c r="B54">
+        <v>73.316999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>80.981999999999999</v>
+        <v>58.734999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>79.129268289999999</v>
+        <v>66.320999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>80.941463409999997</v>
+        <v>78.497560980000003</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B58">
-        <v>67.111999999999995</v>
+        <v>60.194000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>66.596999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>81.20243902</v>
+        <v>82.746341459999996</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>74.081000000000003</v>
+        <v>67.444000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>76.88</v>
+        <v>81.785365850000005</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>75.402505869999999</v>
+        <v>82.578048780000003</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="B64">
-        <v>70.701201319999996</v>
+        <v>77.656999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B65">
-        <v>76.262433909999999</v>
+        <v>66.466999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="B66">
-        <v>73.935400119999997</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B67">
-        <v>78.031280339999995</v>
+        <v>73.766999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B68">
-        <v>77.010000000000005</v>
+        <v>80.941463409999997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B69">
-        <v>71.989999999999995</v>
+        <v>64.073999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>82.038548219999996</v>
+        <v>81.93902439</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>66.320999999999998</v>
+        <v>72.397000000000006</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>83.485365849999994</v>
+        <v>80.073999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <v>78.497560980000003</v>
+        <v>74.302000000000007</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B74">
-        <v>66.596999999999994</v>
+        <v>61.601999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B75">
-        <v>81.063846819999995</v>
+        <v>58.322000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B76">
-        <v>62.480088340000002</v>
+        <v>69.906000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>81.785365850000005</v>
+        <v>64.001000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>67.444000000000003</v>
+        <v>75.27</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B79">
-        <v>82.578048780000003</v>
+        <v>85.078048780000003</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <v>82.746341459999996</v>
+        <v>76.021951220000005</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>67.882999999999996</v>
+        <v>82.56097561</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B82">
-        <v>66.466999999999999</v>
+        <v>69.656000000000006</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B83">
-        <v>81.204878050000005</v>
+        <v>71.715999999999994</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B84">
-        <v>73.766999999999996</v>
+        <v>76.677000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>64.073999999999998</v>
+        <v>70.603999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="B86">
+        <v>82.302439019999994</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B87">
-        <v>61.601999999999997</v>
+        <v>82.804878049999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B88">
-        <v>62.05</v>
+        <v>83.197560980000006</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>58.322000000000003</v>
+        <v>74.474999999999994</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B90">
-        <v>58.734999999999999</v>
+        <v>84.356341459999996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B91">
-        <v>81.93902439</v>
+        <v>74.525999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B92">
-        <v>72.397000000000006</v>
+        <v>73.180000000000007</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="B93">
+        <v>66.698999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B94">
-        <v>74.302000000000007</v>
+        <v>68.369</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="B95">
-        <v>80.073999999999998</v>
+        <v>72.274000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B96">
-        <v>69.906000000000006</v>
+        <v>83.226829269999996</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B97">
-        <v>80.88736686</v>
+        <v>72.495121949999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B98">
-        <v>85.078048780000003</v>
+        <v>75.489000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B99">
-        <v>75.27</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B100">
-        <v>63.486455329999998</v>
+        <v>67.923000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>78.424390239999994</v>
+        <v>75.239024389999997</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B102">
-        <v>64.001000000000005</v>
+        <v>78.930000000000007</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B103">
-        <v>76.021951220000005</v>
+        <v>54.331000000000003</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B104">
-        <v>73.606727759999998</v>
+        <v>64.103999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B105">
-        <v>71.270780680000001</v>
+        <v>72.912999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B106">
-        <v>64.536308939999998</v>
+        <v>83.041463410000006</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B107">
-        <v>62.408997220000003</v>
+        <v>76.134146340000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B108">
-        <v>71.715999999999994</v>
+        <v>82.446341459999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="B109">
-        <v>65.613343869999994</v>
+        <v>84.244</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <v>67.040999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B111">
-        <v>69.656000000000006</v>
+        <v>64.263000000000005</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>76.156000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B113">
-        <v>82.302439019999994</v>
+        <v>78.921000000000006</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B114">
-        <v>76.677000000000007</v>
+        <v>59.305999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B115">
-        <v>70.603999999999999</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B116">
-        <v>82.56097561</v>
+        <v>64.924999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B117">
-        <v>82.804878049999999</v>
+        <v>74.235853660000004</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B118">
-        <v>83.197560980000006</v>
+        <v>75.054000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B119">
-        <v>74.474999999999994</v>
+        <v>67.882999999999996</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B120">
-        <v>74.525999999999996</v>
+        <v>71.900999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B121">
-        <v>84.356341459999996</v>
+        <v>69.87</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B122">
-        <v>73.180000000000007</v>
+        <v>76.884</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B123">
-        <v>66.698999999999998</v>
+        <v>76.680000000000007</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B124">
-        <v>71.599999999999994</v>
+        <v>60.853999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B125">
-        <v>69.822999999999993</v>
+        <v>67.134</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B126">
-        <v>68.369</v>
+        <v>63.707999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>70.778000000000006</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B128">
-        <v>83.226829269999996</v>
+        <v>82.012195120000001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B129">
-        <v>75.489000000000004</v>
+        <v>77.634146340000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B130">
-        <v>75.591326390000006</v>
+        <v>81.707317070000002</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B131">
-        <v>67.923000000000002</v>
+        <v>74.484999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B132">
-        <v>78.930000000000007</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B133">
-        <v>64.103999999999999</v>
+        <v>54.686999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B134">
-        <v>72.912999999999997</v>
+        <v>75.796999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B135">
-        <v>76.203000000000003</v>
+        <v>82.907317070000005</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B136">
-        <v>75.601495040000003</v>
+        <v>77.861000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B137">
-        <v>65.345421239999993</v>
+        <v>67.272999999999996</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B138">
-        <v>63.727749209999999</v>
+        <v>78.506</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B139">
-        <v>83.041463410000006</v>
+        <v>64.501000000000005</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B140">
-        <v>76.977999999999994</v>
+        <v>74.254000000000005</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B141">
-        <v>69.088491669999996</v>
+        <v>76.736000000000004</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B142">
-        <v>71.212748779999998</v>
+        <v>71.230999999999995</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B143">
-        <v>54.331000000000003</v>
+        <v>77.856097559999995</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B144">
-        <v>76.434113229999994</v>
+        <v>80.68292683</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B145">
-        <v>76.134146340000001</v>
+        <v>79.9285122</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B146">
-        <v>82.446341459999999</v>
+        <v>80.227000000000004</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B147">
-        <v>75.239024389999997</v>
+        <v>64.569999999999993</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B148">
-        <v>84.244</v>
+        <v>75.458536589999994</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B149">
-        <v>79.973170730000007</v>
+        <v>73.083902440000003</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B150">
-        <v>76.680000000000007</v>
+        <v>69.024000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>176</v>
+      </c>
+      <c r="B151">
+        <v>73.320999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152">
-        <v>71.900999999999996</v>
+        <v>70.385000000000005</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B153">
-        <v>67.040999999999997</v>
+        <v>75.132999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B154">
-        <v>78.921000000000006</v>
+        <v>67.941000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B155">
-        <v>74.270588759999995</v>
+        <v>75.685365849999997</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>75.054000000000002</v>
+        <v>73.943902440000002</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>145</v>
+      </c>
+      <c r="B157">
+        <v>54.695999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B158">
-        <v>72.050865239999993</v>
+        <v>83.497560980000003</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B159">
-        <v>75.796999999999997</v>
+        <v>77.470731709999995</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B160">
-        <v>59.305999999999997</v>
+        <v>81.280487800000003</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B161">
-        <v>82.6</v>
+        <v>72.995999999999995</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B162">
-        <v>67.134</v>
+        <v>57.396999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B163">
-        <v>73.777589320000004</v>
+        <v>64.131</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B164">
-        <v>76.884</v>
+        <v>57.845999999999997</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="B165">
-        <v>69.87</v>
+        <v>83.485365849999994</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>96</v>
+      </c>
+      <c r="B166">
+        <v>76.977999999999994</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="B167">
-        <v>60.853999999999999</v>
+        <v>76.203000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B168">
-        <v>64.924999999999997</v>
+        <v>79.973170730000007</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B169">
-        <v>74.235853660000004</v>
+        <v>72.534000000000006</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B170">
-        <v>64.263000000000005</v>
+        <v>65.311000000000007</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B171">
-        <v>76.156000000000006</v>
+        <v>71.682000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B172">
-        <v>79.123302580000001</v>
+        <v>82.958536589999994</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="B173">
-        <v>63.707999999999998</v>
+        <v>83.704878050000005</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B174">
-        <v>77.634146340000001</v>
+        <v>72.697000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B175">
-        <v>62.42</v>
+        <v>71.096999999999994</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B176">
-        <v>54.686999999999998</v>
+        <v>65.456000000000003</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B177">
-        <v>74.484999999999999</v>
+        <v>77.150000000000006</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B178">
-        <v>82.012195120000001</v>
+        <v>69.495000000000005</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B179">
-        <v>82.907317070000005</v>
+        <v>61.042000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B180">
-        <v>70.778000000000006</v>
+        <v>70.906999999999996</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>163</v>
+      </c>
+      <c r="B181">
+        <v>73.507000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B182">
-        <v>81.707317070000002</v>
+        <v>76.698999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B183">
-        <v>80.205089889999996</v>
+        <v>77.691000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B184">
-        <v>77.861000000000004</v>
+        <v>68.191000000000003</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B185">
-        <v>68.821876189999998</v>
+        <v>63.368000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B186">
-        <v>67.272999999999996</v>
+        <v>71.827317070000007</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="B187">
-        <v>78.506</v>
+        <v>77.971999999999994</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="B188">
-        <v>76.736000000000004</v>
+        <v>81.204878050000005</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B189">
-        <v>71.230999999999995</v>
+        <v>78.787804879999996</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>79.668292679999993</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B191">
-        <v>64.501000000000005</v>
+        <v>77.911000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B192">
-        <v>77.856097559999995</v>
+        <v>71.724999999999994</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B193">
-        <v>61.175978059999998</v>
+        <v>70.474000000000004</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B194">
-        <v>79.9285122</v>
+        <v>72.063999999999993</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B195">
-        <v>72.274000000000001</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B196">
-        <v>80.68292683</v>
+        <v>74.052999999999997</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B197">
-        <v>74.254000000000005</v>
+        <v>72.741689460000003</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B198">
-        <v>74.052999999999997</v>
+        <v>66.125</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B199">
-        <v>70.07973149</v>
+        <v>63.886000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B200">
-        <v>80.794733609999994</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
-        <v>77.656999999999996</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
-        <v>80.227000000000004</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
-        <v>75.458536589999994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204">
-        <v>73.083902440000003</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205">
-        <v>69.024000000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206">
-        <v>69.643617430000006</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207">
-        <v>75.132999999999996</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208">
-        <v>65.311000000000007</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209">
-        <v>67.941000000000003</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210">
-        <v>83.497560980000003</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211">
-        <v>72.995999999999995</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212">
-        <v>54.695999999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213">
-        <v>73.316999999999993</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215">
-        <v>57.396999999999998</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216">
-        <v>75.685365849999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217">
-        <v>61.626356199999996</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218">
-        <v>57.845999999999997</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
-        <v>61.627442510000002</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220">
-        <v>69.770846989999995</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221">
-        <v>70.385000000000005</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222">
-        <v>71.682000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
-        <v>77.470731709999995</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>81.280487800000003</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
-        <v>82.958536589999994</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
-        <v>60.194000000000003</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
-        <v>73.943902440000002</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>72.697000000000003</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
-        <v>54.238999999999997</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232">
-        <v>75.441336269999994</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="B233">
-        <v>74.298036980000006</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234">
-        <v>61.042000000000002</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235">
-        <v>77.150000000000006</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236">
-        <v>71.096999999999994</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
-        <v>68.191000000000003</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
-        <v>75.520387769999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
-        <v>69.495000000000005</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
-        <v>73.774235680000004</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
-        <v>70.906999999999996</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
-        <v>69.643617430000006</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
-        <v>61.627442510000002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
-        <v>73.507000000000005</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>245</v>
-      </c>
-      <c r="B245">
-        <v>76.698999999999998</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>246</v>
-      </c>
-      <c r="B246">
-        <v>77.691000000000003</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>248</v>
-      </c>
-      <c r="B248">
-        <v>65.456000000000003</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>249</v>
-      </c>
-      <c r="B249">
-        <v>63.368000000000002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250">
-        <v>71.827317070000007</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>251</v>
-      </c>
-      <c r="B251">
-        <v>75.943064079999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252">
-        <v>77.911000000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>253</v>
-      </c>
-      <c r="B253">
-        <v>78.787804879999996</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>254</v>
-      </c>
-      <c r="B254">
-        <v>71.724999999999994</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>255</v>
-      </c>
-      <c r="B255">
-        <v>72.534000000000006</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>256</v>
-      </c>
-      <c r="B256">
-        <v>72.063999999999993</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>258</v>
-      </c>
-      <c r="B258">
-        <v>79.668292679999993</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>259</v>
-      </c>
-      <c r="B259">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>260</v>
-      </c>
-      <c r="B260">
-        <v>70.474000000000004</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>261</v>
-      </c>
-      <c r="B261">
-        <v>72.741689460000003</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>262</v>
-      </c>
-      <c r="B262">
-        <v>73.320999999999998</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>263</v>
-      </c>
-      <c r="B263">
-        <v>72.495121949999998</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>264</v>
-      </c>
-      <c r="B264">
-        <v>66.125</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>265</v>
-      </c>
-      <c r="B265">
-        <v>64.131</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>266</v>
-      </c>
-      <c r="B266">
-        <v>63.886000000000003</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>267</v>
-      </c>
-      <c r="B267">
         <v>61.49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B200" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B200">
+      <sortCondition ref="A1:A200"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>